--- a/data/trans_bre/P1801_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Edad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.220388365103993</v>
+        <v>8.721383515223508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.64415315704504</v>
+        <v>12.07195904866091</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.2703141115733053</v>
+        <v>0.2829466382743159</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4594063894699434</v>
+        <v>0.5100479305750066</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.25281401742511</v>
+        <v>20.79028723095483</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>30.31835954704871</v>
+        <v>30.95906680507032</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.9335295234151573</v>
+        <v>0.9025260252093381</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.125503643541955</v>
+        <v>2.253522031143303</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.33594180636439</v>
+        <v>13.0733586108128</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1799551436199517</v>
+        <v>0.1766829953614301</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4055856429801117</v>
+        <v>0.391984574009711</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.000766629574191756</v>
+        <v>0.007651595067141108</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.35997867421802</v>
+        <v>24.20779990811524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.66676361917125</v>
+        <v>15.05145906663642</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8972685850036919</v>
+        <v>0.8971122351593778</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4991507510982743</v>
+        <v>0.5156962859659509</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>10.14329035222992</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.68534963392991</v>
+        <v>6.685349633929899</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.2421258848871872</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1624684523300474</v>
+        <v>0.1624684523300471</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.735354971019796</v>
+        <v>4.705555634246676</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.754463647436911</v>
+        <v>1.115662535505003</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1077167383681703</v>
+        <v>0.1016020566569049</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.03946148916787635</v>
+        <v>0.02476754505250265</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.71906033821563</v>
+        <v>15.25256180574956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.1228776610359</v>
+        <v>12.22255752217049</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4064138526586133</v>
+        <v>0.3919393946855605</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3238126797928178</v>
+        <v>0.3233972361463326</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.729482953366228</v>
+        <v>-1.99528106900207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.07759021329958708</v>
+        <v>0.1347124123962704</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03506368241879574</v>
+        <v>-0.03717430546855537</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.001046930471917825</v>
+        <v>0.002750940742874781</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.889083550082683</v>
+        <v>9.187323224216273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.845353927842359</v>
+        <v>9.494845791035539</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2184839418117124</v>
+        <v>0.202830203819686</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1991088757320626</v>
+        <v>0.194307604609591</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>8.29355013559513</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.588819039349703</v>
+        <v>7.588819039349726</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.1430745749014384</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.1337270103796288</v>
+        <v>0.1337270103796292</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.320067898290428</v>
+        <v>1.940528385503591</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.931445956021454</v>
+        <v>2.799240797057579</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.02103703409154381</v>
+        <v>0.03187593727652939</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.04991270517662941</v>
+        <v>0.04699859320924666</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.9858975215467</v>
+        <v>15.1783659992664</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.41980296125918</v>
+        <v>12.97291634454462</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2770835802643402</v>
+        <v>0.2798770788233557</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.231944674065681</v>
+        <v>0.2397844299368049</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.085064108299859</v>
+        <v>0.8567771198498171</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.983675844897659</v>
+        <v>-2.970613198794226</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01483679326430691</v>
+        <v>0.01175071278635662</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04375672066875042</v>
+        <v>-0.04475168687757956</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.27907717782558</v>
+        <v>14.38826801676123</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.607127351122585</v>
+        <v>7.781262127067848</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2233235650431023</v>
+        <v>0.2204490425909263</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1254721045276908</v>
+        <v>0.1278610460147209</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.49135916624716</v>
+        <v>-10.54940082991346</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.102787632314836</v>
+        <v>-6.969501552486808</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.1344356620724703</v>
+        <v>-0.1349027929687383</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.09277973094359505</v>
+        <v>-0.09156194056621564</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.62098631640246</v>
+        <v>3.609781843133877</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.21782120574887</v>
+        <v>3.612773504186608</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.04824973017597188</v>
+        <v>0.05117812948099238</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.05941946166398677</v>
+        <v>0.0517766017577093</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.046371779820905</v>
+        <v>8.121565677115958</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.766542746174163</v>
+        <v>5.733761158631114</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1687656528516653</v>
+        <v>0.1703350372045145</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1157287675067365</v>
+        <v>0.1170498414588942</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.85538048195863</v>
+        <v>13.06231911677585</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.55165336813788</v>
+        <v>10.49943486546054</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2850514896338703</v>
+        <v>0.2887822451877114</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2258285023514287</v>
+        <v>0.2270261140538612</v>
       </c>
     </row>
     <row r="28">
